--- a/18th_cent_contents_fields.xlsx
+++ b/18th_cent_contents_fields.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25203"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="36760" yWindow="1140" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="187">
   <si>
     <t>BBF Number</t>
   </si>
@@ -506,6 +506,171 @@
   </si>
   <si>
     <t>Commissaire-Priseur Authority</t>
+  </si>
+  <si>
+    <t>bbf_number</t>
+  </si>
+  <si>
+    <t>sale_code</t>
+  </si>
+  <si>
+    <t>catalogue_number</t>
+  </si>
+  <si>
+    <t>lot_sale_date</t>
+  </si>
+  <si>
+    <t>sale_begin_date</t>
+  </si>
+  <si>
+    <t>sale_end_date</t>
+  </si>
+  <si>
+    <t>lugt_number</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>expert_authority</t>
+  </si>
+  <si>
+    <t>commissaire_priseur</t>
+  </si>
+  <si>
+    <t>commissaire_priseur_authority</t>
+  </si>
+  <si>
+    <t>sale_location</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>country_authority</t>
+  </si>
+  <si>
+    <t>city_authority</t>
+  </si>
+  <si>
+    <t>lot_number</t>
+  </si>
+  <si>
+    <t>verbatim_artist</t>
+  </si>
+  <si>
+    <t>artist_brief_name</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>artist_authority</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>attribution_modifier</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>death_date</t>
+  </si>
+  <si>
+    <t>period_active</t>
+  </si>
+  <si>
+    <t>century_active</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title_modifier</t>
+  </si>
+  <si>
+    <t>lot_notes</t>
+  </si>
+  <si>
+    <t>handwritten_note</t>
+  </si>
+  <si>
+    <t>handwritten_note_source</t>
+  </si>
+  <si>
+    <t>object_type</t>
+  </si>
+  <si>
+    <t>materials</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>verbatim_seller</t>
+  </si>
+  <si>
+    <t>verbatim_seller_modifier</t>
+  </si>
+  <si>
+    <t>seller_authority</t>
+  </si>
+  <si>
+    <t>seller_authority_modifier</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>verbatim_buyer</t>
+  </si>
+  <si>
+    <t>verbatim_buyer_modifier</t>
+  </si>
+  <si>
+    <t>buyer_authority</t>
+  </si>
+  <si>
+    <t>buyer_authority_modifier</t>
+  </si>
+  <si>
+    <t>previous_owner</t>
+  </si>
+  <si>
+    <t>previous_owner_source</t>
+  </si>
+  <si>
+    <t>previous_owner_authority</t>
+  </si>
+  <si>
+    <t>previous_sales</t>
+  </si>
+  <si>
+    <t>post_sales</t>
+  </si>
+  <si>
+    <t>post_owner</t>
+  </si>
+  <si>
+    <t>post_owner_source</t>
+  </si>
+  <si>
+    <t>post_owner_authority</t>
+  </si>
+  <si>
+    <t>present_location</t>
   </si>
 </sst>
 </file>
@@ -611,8 +776,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -674,7 +845,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -700,6 +871,9 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -725,6 +899,9 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1019,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1064,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B2)," ","_"),"-","_")</f>
+        <f t="shared" ref="C2:C33" si="0">SUBSTITUTE(SUBSTITUTE(LOWER(B2)," ","_"),"-","_")</f>
         <v>bbf_number</v>
       </c>
     </row>
@@ -1076,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B3)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>sale_code</v>
       </c>
     </row>
@@ -1088,7 +1265,7 @@
         <v>130</v>
       </c>
       <c r="C4" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B4)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>catalogue_number</v>
       </c>
     </row>
@@ -1100,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B5)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>lot_sale_date</v>
       </c>
       <c r="F5" t="s">
@@ -1115,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B6)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>sale_begin_date</v>
       </c>
       <c r="F6" t="s">
@@ -1130,7 +1307,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B7)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>sale_end_date</v>
       </c>
       <c r="F7" t="s">
@@ -1145,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B8)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>lugt_number</v>
       </c>
     </row>
@@ -1157,7 +1334,7 @@
         <v>126</v>
       </c>
       <c r="C9" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B9)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>expert</v>
       </c>
       <c r="D9" t="s">
@@ -1172,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B10)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>expert_authority</v>
       </c>
       <c r="D10" t="s">
@@ -1187,7 +1364,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B11)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>commissaire_priseur</v>
       </c>
       <c r="D11" t="s">
@@ -1202,7 +1379,7 @@
         <v>131</v>
       </c>
       <c r="C12" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B12)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>commissaire_priseur_authority</v>
       </c>
       <c r="D12" t="s">
@@ -1217,7 +1394,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B13)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>sale_location</v>
       </c>
     </row>
@@ -1229,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B14)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>country</v>
       </c>
     </row>
@@ -1241,7 +1418,7 @@
         <v>43</v>
       </c>
       <c r="C15" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B15)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>country_authority</v>
       </c>
     </row>
@@ -1253,7 +1430,7 @@
         <v>43</v>
       </c>
       <c r="C16" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B16)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>country_authority</v>
       </c>
     </row>
@@ -1265,7 +1442,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B17)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>city_authority</v>
       </c>
     </row>
@@ -1277,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B18)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>lot_number</v>
       </c>
       <c r="F18" t="s">
@@ -1292,7 +1469,7 @@
         <v>112</v>
       </c>
       <c r="C19" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B19)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>verbatim_artist</v>
       </c>
       <c r="D19" t="s">
@@ -1313,7 +1490,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B20)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>artist_brief_name</v>
       </c>
       <c r="D20" t="s">
@@ -1331,7 +1508,7 @@
         <v>122</v>
       </c>
       <c r="C21" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B21)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>artist</v>
       </c>
       <c r="D21" t="s">
@@ -1349,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B22)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>artist_authority</v>
       </c>
       <c r="D22" t="s">
@@ -1367,7 +1544,7 @@
         <v>13</v>
       </c>
       <c r="C23" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B23)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>nationality</v>
       </c>
       <c r="D23" t="s">
@@ -1385,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B24)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>attribution_modifier</v>
       </c>
       <c r="D24" t="s">
@@ -1403,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="C25" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B25)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>birth_date</v>
       </c>
       <c r="D25" t="s">
@@ -1424,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="C26" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B26)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>death_date</v>
       </c>
       <c r="D26" t="s">
@@ -1445,7 +1622,7 @@
         <v>16</v>
       </c>
       <c r="C27" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B27)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>period_active</v>
       </c>
       <c r="D27" t="s">
@@ -1463,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="C28" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B28)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>century_active</v>
       </c>
       <c r="D28" t="s">
@@ -1481,7 +1658,7 @@
         <v>18</v>
       </c>
       <c r="C29" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B29)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>title</v>
       </c>
     </row>
@@ -1493,7 +1670,7 @@
         <v>19</v>
       </c>
       <c r="C30" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B30)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>title_modifier</v>
       </c>
     </row>
@@ -1505,7 +1682,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B31)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>notes</v>
       </c>
     </row>
@@ -1517,7 +1694,7 @@
         <v>127</v>
       </c>
       <c r="C32" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B32)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>lot_notes</v>
       </c>
     </row>
@@ -1529,7 +1706,7 @@
         <v>20</v>
       </c>
       <c r="C33" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B33)," ","_"),"-","_")</f>
+        <f t="shared" si="0"/>
         <v>handwritten_note</v>
       </c>
       <c r="D33" t="s">
@@ -1544,7 +1721,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B34)," ","_"),"-","_")</f>
+        <f t="shared" ref="C34:C65" si="1">SUBSTITUTE(SUBSTITUTE(LOWER(B34)," ","_"),"-","_")</f>
         <v>handwritten_note_source</v>
       </c>
       <c r="D34" t="s">
@@ -1559,7 +1736,7 @@
         <v>21</v>
       </c>
       <c r="C35" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B35)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>object_type</v>
       </c>
       <c r="D35" t="s">
@@ -1574,7 +1751,7 @@
         <v>22</v>
       </c>
       <c r="C36" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B36)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>materials</v>
       </c>
     </row>
@@ -1586,7 +1763,7 @@
         <v>23</v>
       </c>
       <c r="C37" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B37)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>dimensions</v>
       </c>
     </row>
@@ -1598,7 +1775,7 @@
         <v>24</v>
       </c>
       <c r="C38" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B38)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>format</v>
       </c>
     </row>
@@ -1610,7 +1787,7 @@
         <v>25</v>
       </c>
       <c r="C39" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B39)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>inscription</v>
       </c>
     </row>
@@ -1622,7 +1799,7 @@
         <v>26</v>
       </c>
       <c r="C40" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B40)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>verbatim_seller</v>
       </c>
       <c r="D40" t="s">
@@ -1637,7 +1814,7 @@
         <v>52</v>
       </c>
       <c r="C41" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B41)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>verbatim_seller_modifier</v>
       </c>
       <c r="D41" t="s">
@@ -1652,7 +1829,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B42)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>verbatim_seller_modifier</v>
       </c>
       <c r="D42" t="s">
@@ -1667,7 +1844,7 @@
         <v>27</v>
       </c>
       <c r="C43" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B43)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>seller_authority</v>
       </c>
       <c r="D43" t="s">
@@ -1685,7 +1862,7 @@
         <v>53</v>
       </c>
       <c r="C44" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B44)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>seller_authority_modifier</v>
       </c>
       <c r="D44" t="s">
@@ -1700,7 +1877,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B45)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>transaction</v>
       </c>
     </row>
@@ -1712,7 +1889,7 @@
         <v>29</v>
       </c>
       <c r="C46" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B46)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>price</v>
       </c>
       <c r="F46" t="s">
@@ -1727,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="C47" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B47)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>verbatim_buyer</v>
       </c>
       <c r="D47" t="s">
@@ -1748,7 +1925,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B48)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>verbatim_buyer_modifier</v>
       </c>
       <c r="D48" t="s">
@@ -1766,7 +1943,7 @@
         <v>31</v>
       </c>
       <c r="C49" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B49)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>buyer_authority</v>
       </c>
       <c r="D49" t="s">
@@ -1787,7 +1964,7 @@
         <v>56</v>
       </c>
       <c r="C50" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B50)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>buyer_authority_modifier</v>
       </c>
       <c r="D50" t="s">
@@ -1805,7 +1982,7 @@
         <v>128</v>
       </c>
       <c r="C51" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B51)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>previous_owner</v>
       </c>
       <c r="D51" t="s">
@@ -1826,7 +2003,7 @@
         <v>34</v>
       </c>
       <c r="C52" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B52)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>previous_owner_source</v>
       </c>
       <c r="D52" t="s">
@@ -1844,7 +2021,7 @@
         <v>35</v>
       </c>
       <c r="C53" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B53)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>previous_owner_authority</v>
       </c>
       <c r="D53" t="s">
@@ -1865,7 +2042,7 @@
         <v>36</v>
       </c>
       <c r="C54" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B54)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>previous_sales</v>
       </c>
       <c r="D54" t="s">
@@ -1883,7 +2060,7 @@
         <v>37</v>
       </c>
       <c r="C55" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B55)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>post_sales</v>
       </c>
       <c r="D55" t="s">
@@ -1901,7 +2078,7 @@
         <v>38</v>
       </c>
       <c r="C56" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B56)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>post_owner</v>
       </c>
       <c r="D56" t="s">
@@ -1922,7 +2099,7 @@
         <v>39</v>
       </c>
       <c r="C57" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B57)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>post_owner_source</v>
       </c>
       <c r="D57" t="s">
@@ -1940,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="C58" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B58)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>post_owner_authority</v>
       </c>
       <c r="D58" t="s">
@@ -1961,7 +2138,7 @@
         <v>41</v>
       </c>
       <c r="C59" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(LOWER(B59)," ","_"),"-","_")</f>
+        <f t="shared" si="1"/>
         <v>present_location</v>
       </c>
     </row>
@@ -1980,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2352,13 +2529,371 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:B58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="B54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
